--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C000）共通ヘッダー.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C000）共通ヘッダー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{0072726E-090E-484D-8837-6DE369DBBE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{414891D1-688F-4A89-B22C-3A84B22247BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D48C1-67F0-4BB5-A482-FD5C4EC341DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="879" activeTab="2" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
@@ -459,13 +459,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セッションの利用者idから、以下を取得する</t>
-    <rPh sb="14" eb="16">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ：”現在ログイン中：ユーザーの氏名”を表示する</t>
     <rPh sb="7" eb="9">
       <t>ゲンザイ</t>
@@ -478,6 +471,13 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッションから、以下を取得する</t>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1042,86 +1042,110 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,39 +1159,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1192,24 +1192,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1224,16 +1214,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1980,206 +1980,206 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="56" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="58" t="s">
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="60"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="65"/>
     </row>
     <row r="3" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="69">
+      <c r="I3" s="74">
         <v>101</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="61" t="s">
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63">
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="68">
         <v>45441</v>
       </c>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="65"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="70"/>
     </row>
     <row r="4" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="68"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="73"/>
     </row>
     <row r="5" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="73"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
@@ -2281,17 +2281,17 @@
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
@@ -2331,15 +2331,15 @@
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
@@ -2518,296 +2518,296 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
       <c r="AP30" s="8"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="77"/>
       <c r="AP31" s="8"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54"/>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="54"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="54"/>
-      <c r="AL32" s="54"/>
-      <c r="AM32" s="54"/>
-      <c r="AN32" s="54"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="77"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="77"/>
       <c r="AP32" s="8"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="54"/>
-      <c r="AN33" s="54"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="77"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="77"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="77"/>
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="54"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="77"/>
+      <c r="AE34" s="77"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="77"/>
+      <c r="AH34" s="77"/>
+      <c r="AI34" s="77"/>
+      <c r="AJ34" s="77"/>
+      <c r="AK34" s="77"/>
+      <c r="AL34" s="77"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="77"/>
       <c r="AP34" s="8"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="77"/>
+      <c r="AE35" s="77"/>
+      <c r="AF35" s="77"/>
+      <c r="AG35" s="77"/>
+      <c r="AH35" s="77"/>
+      <c r="AI35" s="77"/>
+      <c r="AJ35" s="77"/>
+      <c r="AK35" s="77"/>
+      <c r="AL35" s="77"/>
+      <c r="AM35" s="77"/>
+      <c r="AN35" s="77"/>
       <c r="AP35" s="8"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="54"/>
-      <c r="AM36" s="54"/>
-      <c r="AN36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="77"/>
+      <c r="AD36" s="77"/>
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="77"/>
+      <c r="AG36" s="77"/>
+      <c r="AH36" s="77"/>
+      <c r="AI36" s="77"/>
+      <c r="AJ36" s="77"/>
+      <c r="AK36" s="77"/>
+      <c r="AL36" s="77"/>
+      <c r="AM36" s="77"/>
+      <c r="AN36" s="77"/>
       <c r="AP36" s="8"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.45">
@@ -3070,19 +3070,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C9:K10"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:AB34"/>
-    <mergeCell ref="E31:AB32"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AI3:AP3"/>
-    <mergeCell ref="I5:AP5"/>
-    <mergeCell ref="I4:AP4"/>
-    <mergeCell ref="I3:AC3"/>
-    <mergeCell ref="I2:AC2"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:AB36"/>
+    <mergeCell ref="AC33:AD34"/>
+    <mergeCell ref="AC35:AD36"/>
+    <mergeCell ref="AE35:AJ36"/>
     <mergeCell ref="AK35:AL36"/>
     <mergeCell ref="AM35:AN36"/>
     <mergeCell ref="C31:D32"/>
@@ -3099,11 +3091,19 @@
     <mergeCell ref="AE33:AJ34"/>
     <mergeCell ref="AK33:AL34"/>
     <mergeCell ref="AM33:AN34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:AB36"/>
-    <mergeCell ref="AC33:AD34"/>
-    <mergeCell ref="AC35:AD36"/>
-    <mergeCell ref="AE35:AJ36"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="I5:AP5"/>
+    <mergeCell ref="I4:AP4"/>
+    <mergeCell ref="I3:AC3"/>
+    <mergeCell ref="I2:AC2"/>
+    <mergeCell ref="C9:K10"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:AB34"/>
+    <mergeCell ref="E31:AB32"/>
+    <mergeCell ref="A2:D5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI1">
@@ -3214,8 +3214,8 @@
       <c r="A2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="87" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="91"/>
@@ -3226,8 +3226,8 @@
       <c r="I2" s="91"/>
       <c r="J2" s="91"/>
       <c r="K2" s="91"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="79" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="91"/>
@@ -3236,99 +3236,99 @@
       <c r="Q2" s="91"/>
       <c r="R2" s="91"/>
       <c r="S2" s="91"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="79" t="s">
+      <c r="T2" s="88"/>
+      <c r="U2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="80"/>
-      <c r="W2" s="79" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="79" t="s">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="87" t="s">
         <v>16</v>
       </c>
       <c r="Z2" s="91"/>
       <c r="AA2" s="91"/>
       <c r="AB2" s="91"/>
       <c r="AC2" s="91"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="79" t="s">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="81" t="s">
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="81"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="82"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="90"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="85" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="88" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="88" t="s">
+      <c r="V3" s="81"/>
+      <c r="W3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="88" t="s">
+      <c r="X3" s="81"/>
+      <c r="Y3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="88">
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="79">
         <v>3</v>
       </c>
-      <c r="AF3" s="89"/>
+      <c r="AF3" s="81"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
@@ -3353,52 +3353,52 @@
       <c r="BB3" s="14"/>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="85" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="88" t="s">
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="89"/>
-      <c r="W4" s="88" t="s">
+      <c r="V4" s="81"/>
+      <c r="W4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="88" t="s">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="88">
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="79">
         <v>20</v>
       </c>
-      <c r="AF4" s="89"/>
+      <c r="AF4" s="81"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
@@ -3423,52 +3423,52 @@
       <c r="BB4" s="14"/>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="85" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="88" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="89"/>
-      <c r="W5" s="88" t="s">
+      <c r="V5" s="81"/>
+      <c r="W5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="88" t="s">
+      <c r="X5" s="81"/>
+      <c r="Y5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="88">
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="79">
         <v>5</v>
       </c>
-      <c r="AF5" s="89"/>
+      <c r="AF5" s="81"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
@@ -3494,19 +3494,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -3523,6 +3510,19 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2">
@@ -3539,7 +3539,7 @@
   <dimension ref="A1:CD8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3638,63 +3638,63 @@
       <c r="CD1" s="15"/>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="93" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="93" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81" t="s">
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="82"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="90"/>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.45">
       <c r="A3" s="94" t="s">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="U3" s="19"/>
       <c r="V3" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
@@ -3744,7 +3744,7 @@
       <c r="AI3" s="19"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AL3" s="19"/>
       <c r="AM3" s="19"/>
@@ -3758,25 +3758,25 @@
       <c r="AU3" s="20"/>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A4" s="92"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="87"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="86"/>
       <c r="T4" s="18" t="s">
         <v>58</v>
       </c>
@@ -3811,31 +3811,31 @@
       <c r="AU4" s="14"/>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="85" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="49" t="s">
         <v>55</v>
       </c>
@@ -3868,25 +3868,25 @@
       <c r="AU5" s="14"/>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A6" s="92"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="87"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="86"/>
       <c r="T6" s="51" t="s">
         <v>59</v>
       </c>
@@ -3919,25 +3919,25 @@
       <c r="AU6" s="14"/>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A7" s="92"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="87"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="86"/>
       <c r="T7" s="51" t="s">
         <v>60</v>
       </c>
@@ -3970,31 +3970,31 @@
       <c r="AU7" s="14"/>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="85" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="87"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="86"/>
       <c r="T8" s="12" t="s">
         <v>54</v>
       </c>
@@ -4028,6 +4028,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:S7"/>
     <mergeCell ref="T2:AJ2"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="A5:B5"/>
@@ -4042,15 +4051,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="M3:S3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:S7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AL1:AL2">
@@ -4158,7 +4158,7 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="91"/>
@@ -4177,7 +4177,7 @@
       <c r="O2" s="91"/>
       <c r="P2" s="91"/>
       <c r="Q2" s="91"/>
-      <c r="R2" s="80"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="91" t="s">
         <v>32</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="AA2" s="91"/>
       <c r="AB2" s="91"/>
       <c r="AC2" s="91"/>
-      <c r="AD2" s="80"/>
+      <c r="AD2" s="88"/>
       <c r="AE2" s="99" t="s">
         <v>33</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="BB2" s="101"/>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="87" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="91"/>
@@ -4232,8 +4232,8 @@
       <c r="F3" s="91"/>
       <c r="G3" s="91"/>
       <c r="H3" s="91"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="79" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="87" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="91"/>
@@ -4243,12 +4243,12 @@
       <c r="O3" s="91"/>
       <c r="P3" s="91"/>
       <c r="Q3" s="91"/>
-      <c r="R3" s="80"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="79" t="s">
+      <c r="T3" s="88"/>
+      <c r="U3" s="87" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="91"/>
@@ -4259,7 +4259,7 @@
       <c r="AA3" s="91"/>
       <c r="AB3" s="91"/>
       <c r="AC3" s="91"/>
-      <c r="AD3" s="80"/>
+      <c r="AD3" s="88"/>
       <c r="AE3" s="21"/>
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
@@ -4360,42 +4360,42 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="14"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="86"/>
-      <c r="AX5" s="86"/>
-      <c r="AY5" s="86"/>
-      <c r="AZ5" s="86"/>
-      <c r="BA5" s="86"/>
-      <c r="BB5" s="87"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="85"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="86"/>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
@@ -4416,42 +4416,42 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="86"/>
-      <c r="AV6" s="86"/>
-      <c r="AW6" s="86"/>
-      <c r="AX6" s="86"/>
-      <c r="AY6" s="86"/>
-      <c r="AZ6" s="86"/>
-      <c r="BA6" s="86"/>
-      <c r="BB6" s="87"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="85"/>
+      <c r="AQ6" s="85"/>
+      <c r="AR6" s="85"/>
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="85"/>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="85"/>
+      <c r="AW6" s="85"/>
+      <c r="AX6" s="85"/>
+      <c r="AY6" s="85"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="85"/>
+      <c r="BB6" s="86"/>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
@@ -4472,42 +4472,42 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="86"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="86"/>
-      <c r="AW7" s="86"/>
-      <c r="AX7" s="86"/>
-      <c r="AY7" s="86"/>
-      <c r="AZ7" s="86"/>
-      <c r="BA7" s="86"/>
-      <c r="BB7" s="87"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="85"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="85"/>
+      <c r="AT7" s="85"/>
+      <c r="AU7" s="85"/>
+      <c r="AV7" s="85"/>
+      <c r="AW7" s="85"/>
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="85"/>
+      <c r="BB7" s="86"/>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
@@ -4528,42 +4528,42 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="86"/>
-      <c r="AZ8" s="86"/>
-      <c r="BA8" s="86"/>
-      <c r="BB8" s="87"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="86"/>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
@@ -4584,42 +4584,42 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="14"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="86"/>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="87"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="86"/>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
@@ -4640,42 +4640,42 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="86"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="86"/>
-      <c r="AZ10" s="86"/>
-      <c r="BA10" s="86"/>
-      <c r="BB10" s="87"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="86"/>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
@@ -4696,42 +4696,42 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="85"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="86"/>
-      <c r="AX11" s="86"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="86"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="87"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="86"/>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
@@ -4752,42 +4752,42 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="14"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="87"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="86"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="86"/>
-      <c r="AW12" s="86"/>
-      <c r="AX12" s="86"/>
-      <c r="AY12" s="86"/>
-      <c r="AZ12" s="86"/>
-      <c r="BA12" s="86"/>
-      <c r="BB12" s="87"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="85"/>
+      <c r="AL12" s="85"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="85"/>
+      <c r="AQ12" s="85"/>
+      <c r="AR12" s="85"/>
+      <c r="AS12" s="85"/>
+      <c r="AT12" s="85"/>
+      <c r="AU12" s="85"/>
+      <c r="AV12" s="85"/>
+      <c r="AW12" s="85"/>
+      <c r="AX12" s="85"/>
+      <c r="AY12" s="85"/>
+      <c r="AZ12" s="85"/>
+      <c r="BA12" s="85"/>
+      <c r="BB12" s="86"/>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
@@ -4808,42 +4808,42 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="86"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="86"/>
-      <c r="AW13" s="86"/>
-      <c r="AX13" s="86"/>
-      <c r="AY13" s="86"/>
-      <c r="AZ13" s="86"/>
-      <c r="BA13" s="86"/>
-      <c r="BB13" s="87"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="85"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="85"/>
+      <c r="AQ13" s="85"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="85"/>
+      <c r="AU13" s="85"/>
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="85"/>
+      <c r="BB13" s="86"/>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
@@ -4864,42 +4864,42 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="87"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="86"/>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
@@ -4920,42 +4920,42 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="85"/>
-      <c r="AO15" s="86"/>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="86"/>
-      <c r="AU15" s="86"/>
-      <c r="AV15" s="86"/>
-      <c r="AW15" s="86"/>
-      <c r="AX15" s="86"/>
-      <c r="AY15" s="86"/>
-      <c r="AZ15" s="86"/>
-      <c r="BA15" s="86"/>
-      <c r="BB15" s="87"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="85"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="85"/>
+      <c r="BB15" s="86"/>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
@@ -4976,42 +4976,42 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="86"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="85"/>
-      <c r="AO16" s="86"/>
-      <c r="AP16" s="86"/>
-      <c r="AQ16" s="86"/>
-      <c r="AR16" s="86"/>
-      <c r="AS16" s="86"/>
-      <c r="AT16" s="86"/>
-      <c r="AU16" s="86"/>
-      <c r="AV16" s="86"/>
-      <c r="AW16" s="86"/>
-      <c r="AX16" s="86"/>
-      <c r="AY16" s="86"/>
-      <c r="AZ16" s="86"/>
-      <c r="BA16" s="86"/>
-      <c r="BB16" s="87"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="85"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="85"/>
+      <c r="AX16" s="85"/>
+      <c r="AY16" s="85"/>
+      <c r="AZ16" s="85"/>
+      <c r="BA16" s="85"/>
+      <c r="BB16" s="86"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
@@ -5032,42 +5032,42 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="86"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="86"/>
-      <c r="AP17" s="86"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="86"/>
-      <c r="AS17" s="86"/>
-      <c r="AT17" s="86"/>
-      <c r="AU17" s="86"/>
-      <c r="AV17" s="86"/>
-      <c r="AW17" s="86"/>
-      <c r="AX17" s="86"/>
-      <c r="AY17" s="86"/>
-      <c r="AZ17" s="86"/>
-      <c r="BA17" s="86"/>
-      <c r="BB17" s="87"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="85"/>
+      <c r="AT17" s="85"/>
+      <c r="AU17" s="85"/>
+      <c r="AV17" s="85"/>
+      <c r="AW17" s="85"/>
+      <c r="AX17" s="85"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="85"/>
+      <c r="BA17" s="85"/>
+      <c r="BB17" s="86"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
@@ -5088,45 +5088,97 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="85"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="86"/>
-      <c r="AL18" s="86"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="85"/>
-      <c r="AO18" s="86"/>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="86"/>
-      <c r="AS18" s="86"/>
-      <c r="AT18" s="86"/>
-      <c r="AU18" s="86"/>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="86"/>
-      <c r="AX18" s="86"/>
-      <c r="AY18" s="86"/>
-      <c r="AZ18" s="86"/>
-      <c r="BA18" s="86"/>
-      <c r="BB18" s="87"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="85"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="85"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="85"/>
+      <c r="AV18" s="85"/>
+      <c r="AW18" s="85"/>
+      <c r="AX18" s="85"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="85"/>
+      <c r="BA18" s="85"/>
+      <c r="BB18" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:BB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BB15"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:AD18"/>
     <mergeCell ref="AE18:AM18"/>
@@ -5139,58 +5191,6 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BB15"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AM10"/>
-    <mergeCell ref="AN10:BB10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5268,1259 +5268,1349 @@
       <c r="BB1" s="27"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="102" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="102" t="s">
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="102" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="103"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="116"/>
+      <c r="AX2" s="116"/>
+      <c r="AY2" s="116"/>
+      <c r="AZ2" s="116"/>
+      <c r="BA2" s="116"/>
+      <c r="BB2" s="115"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="105">
+      <c r="A3" s="112">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106">
+      <c r="B3" s="112"/>
+      <c r="C3" s="117">
         <v>45421</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108" t="s">
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="105">
+      <c r="A4" s="112">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102"/>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="105">
+      <c r="A5" s="112">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="116"/>
-      <c r="AO5" s="116"/>
-      <c r="AP5" s="116"/>
-      <c r="AQ5" s="116"/>
-      <c r="AR5" s="116"/>
-      <c r="AS5" s="116"/>
-      <c r="AT5" s="116"/>
-      <c r="AU5" s="116"/>
-      <c r="AV5" s="116"/>
-      <c r="AW5" s="116"/>
-      <c r="AX5" s="116"/>
-      <c r="AY5" s="116"/>
-      <c r="AZ5" s="116"/>
-      <c r="BA5" s="116"/>
-      <c r="BB5" s="116"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="102"/>
+      <c r="AX5" s="102"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="105">
+      <c r="A6" s="112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116"/>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116"/>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116"/>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="102"/>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="102"/>
+      <c r="AR6" s="102"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="102"/>
+      <c r="AU6" s="102"/>
+      <c r="AV6" s="102"/>
+      <c r="AW6" s="102"/>
+      <c r="AX6" s="102"/>
+      <c r="AY6" s="102"/>
+      <c r="AZ6" s="102"/>
+      <c r="BA6" s="102"/>
+      <c r="BB6" s="102"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="105">
+      <c r="A7" s="112">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="116"/>
-      <c r="AO7" s="116"/>
-      <c r="AP7" s="116"/>
-      <c r="AQ7" s="116"/>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="116"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="116"/>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="116"/>
-      <c r="AX7" s="116"/>
-      <c r="AY7" s="116"/>
-      <c r="AZ7" s="116"/>
-      <c r="BA7" s="116"/>
-      <c r="BB7" s="116"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="102"/>
+      <c r="AR7" s="102"/>
+      <c r="AS7" s="102"/>
+      <c r="AT7" s="102"/>
+      <c r="AU7" s="102"/>
+      <c r="AV7" s="102"/>
+      <c r="AW7" s="102"/>
+      <c r="AX7" s="102"/>
+      <c r="AY7" s="102"/>
+      <c r="AZ7" s="102"/>
+      <c r="BA7" s="102"/>
+      <c r="BB7" s="102"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="105">
+      <c r="A8" s="112">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="116"/>
-      <c r="AO8" s="116"/>
-      <c r="AP8" s="116"/>
-      <c r="AQ8" s="116"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="116"/>
-      <c r="AX8" s="116"/>
-      <c r="AY8" s="116"/>
-      <c r="AZ8" s="116"/>
-      <c r="BA8" s="116"/>
-      <c r="BB8" s="116"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="102"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="102"/>
+      <c r="AS8" s="102"/>
+      <c r="AT8" s="102"/>
+      <c r="AU8" s="102"/>
+      <c r="AV8" s="102"/>
+      <c r="AW8" s="102"/>
+      <c r="AX8" s="102"/>
+      <c r="AY8" s="102"/>
+      <c r="AZ8" s="102"/>
+      <c r="BA8" s="102"/>
+      <c r="BB8" s="102"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="105">
+      <c r="A9" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="115"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="116"/>
-      <c r="AL9" s="116"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="116"/>
-      <c r="AO9" s="116"/>
-      <c r="AP9" s="116"/>
-      <c r="AQ9" s="116"/>
-      <c r="AR9" s="116"/>
-      <c r="AS9" s="116"/>
-      <c r="AT9" s="116"/>
-      <c r="AU9" s="116"/>
-      <c r="AV9" s="116"/>
-      <c r="AW9" s="116"/>
-      <c r="AX9" s="116"/>
-      <c r="AY9" s="116"/>
-      <c r="AZ9" s="116"/>
-      <c r="BA9" s="116"/>
-      <c r="BB9" s="116"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="102"/>
+      <c r="AU9" s="102"/>
+      <c r="AV9" s="102"/>
+      <c r="AW9" s="102"/>
+      <c r="AX9" s="102"/>
+      <c r="AY9" s="102"/>
+      <c r="AZ9" s="102"/>
+      <c r="BA9" s="102"/>
+      <c r="BB9" s="102"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="105">
+      <c r="A10" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="116"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="116"/>
-      <c r="AO10" s="116"/>
-      <c r="AP10" s="116"/>
-      <c r="AQ10" s="116"/>
-      <c r="AR10" s="116"/>
-      <c r="AS10" s="116"/>
-      <c r="AT10" s="116"/>
-      <c r="AU10" s="116"/>
-      <c r="AV10" s="116"/>
-      <c r="AW10" s="116"/>
-      <c r="AX10" s="116"/>
-      <c r="AY10" s="116"/>
-      <c r="AZ10" s="116"/>
-      <c r="BA10" s="116"/>
-      <c r="BB10" s="116"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="102"/>
+      <c r="BA10" s="102"/>
+      <c r="BB10" s="102"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="105">
+      <c r="A11" s="112">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="116"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="116"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="116"/>
-      <c r="AO11" s="116"/>
-      <c r="AP11" s="116"/>
-      <c r="AQ11" s="116"/>
-      <c r="AR11" s="116"/>
-      <c r="AS11" s="116"/>
-      <c r="AT11" s="116"/>
-      <c r="AU11" s="116"/>
-      <c r="AV11" s="116"/>
-      <c r="AW11" s="116"/>
-      <c r="AX11" s="116"/>
-      <c r="AY11" s="116"/>
-      <c r="AZ11" s="116"/>
-      <c r="BA11" s="116"/>
-      <c r="BB11" s="116"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="102"/>
+      <c r="AY11" s="102"/>
+      <c r="AZ11" s="102"/>
+      <c r="BA11" s="102"/>
+      <c r="BB11" s="102"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="105">
+      <c r="A12" s="112">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="116"/>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="116"/>
-      <c r="AE12" s="116"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="116"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="116"/>
-      <c r="AO12" s="116"/>
-      <c r="AP12" s="116"/>
-      <c r="AQ12" s="116"/>
-      <c r="AR12" s="116"/>
-      <c r="AS12" s="116"/>
-      <c r="AT12" s="116"/>
-      <c r="AU12" s="116"/>
-      <c r="AV12" s="116"/>
-      <c r="AW12" s="116"/>
-      <c r="AX12" s="116"/>
-      <c r="AY12" s="116"/>
-      <c r="AZ12" s="116"/>
-      <c r="BA12" s="116"/>
-      <c r="BB12" s="116"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="102"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="102"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="102"/>
+      <c r="AO12" s="102"/>
+      <c r="AP12" s="102"/>
+      <c r="AQ12" s="102"/>
+      <c r="AR12" s="102"/>
+      <c r="AS12" s="102"/>
+      <c r="AT12" s="102"/>
+      <c r="AU12" s="102"/>
+      <c r="AV12" s="102"/>
+      <c r="AW12" s="102"/>
+      <c r="AX12" s="102"/>
+      <c r="AY12" s="102"/>
+      <c r="AZ12" s="102"/>
+      <c r="BA12" s="102"/>
+      <c r="BB12" s="102"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="105">
+      <c r="A13" s="112">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="115"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="116"/>
-      <c r="AO13" s="116"/>
-      <c r="AP13" s="116"/>
-      <c r="AQ13" s="116"/>
-      <c r="AR13" s="116"/>
-      <c r="AS13" s="116"/>
-      <c r="AT13" s="116"/>
-      <c r="AU13" s="116"/>
-      <c r="AV13" s="116"/>
-      <c r="AW13" s="116"/>
-      <c r="AX13" s="116"/>
-      <c r="AY13" s="116"/>
-      <c r="AZ13" s="116"/>
-      <c r="BA13" s="116"/>
-      <c r="BB13" s="116"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="102"/>
+      <c r="AX13" s="102"/>
+      <c r="AY13" s="102"/>
+      <c r="AZ13" s="102"/>
+      <c r="BA13" s="102"/>
+      <c r="BB13" s="102"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="105">
+      <c r="A14" s="112">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="116"/>
-      <c r="AO14" s="116"/>
-      <c r="AP14" s="116"/>
-      <c r="AQ14" s="116"/>
-      <c r="AR14" s="116"/>
-      <c r="AS14" s="116"/>
-      <c r="AT14" s="116"/>
-      <c r="AU14" s="116"/>
-      <c r="AV14" s="116"/>
-      <c r="AW14" s="116"/>
-      <c r="AX14" s="116"/>
-      <c r="AY14" s="116"/>
-      <c r="AZ14" s="116"/>
-      <c r="BA14" s="116"/>
-      <c r="BB14" s="116"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="102"/>
+      <c r="AO14" s="102"/>
+      <c r="AP14" s="102"/>
+      <c r="AQ14" s="102"/>
+      <c r="AR14" s="102"/>
+      <c r="AS14" s="102"/>
+      <c r="AT14" s="102"/>
+      <c r="AU14" s="102"/>
+      <c r="AV14" s="102"/>
+      <c r="AW14" s="102"/>
+      <c r="AX14" s="102"/>
+      <c r="AY14" s="102"/>
+      <c r="AZ14" s="102"/>
+      <c r="BA14" s="102"/>
+      <c r="BB14" s="102"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="105">
+      <c r="A15" s="112">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="116"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="116"/>
-      <c r="AO15" s="116"/>
-      <c r="AP15" s="116"/>
-      <c r="AQ15" s="116"/>
-      <c r="AR15" s="116"/>
-      <c r="AS15" s="116"/>
-      <c r="AT15" s="116"/>
-      <c r="AU15" s="116"/>
-      <c r="AV15" s="116"/>
-      <c r="AW15" s="116"/>
-      <c r="AX15" s="116"/>
-      <c r="AY15" s="116"/>
-      <c r="AZ15" s="116"/>
-      <c r="BA15" s="116"/>
-      <c r="BB15" s="116"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="102"/>
+      <c r="AO15" s="102"/>
+      <c r="AP15" s="102"/>
+      <c r="AQ15" s="102"/>
+      <c r="AR15" s="102"/>
+      <c r="AS15" s="102"/>
+      <c r="AT15" s="102"/>
+      <c r="AU15" s="102"/>
+      <c r="AV15" s="102"/>
+      <c r="AW15" s="102"/>
+      <c r="AX15" s="102"/>
+      <c r="AY15" s="102"/>
+      <c r="AZ15" s="102"/>
+      <c r="BA15" s="102"/>
+      <c r="BB15" s="102"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="105">
+      <c r="A16" s="112">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="114"/>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="116"/>
-      <c r="AT16" s="116"/>
-      <c r="AU16" s="116"/>
-      <c r="AV16" s="116"/>
-      <c r="AW16" s="116"/>
-      <c r="AX16" s="116"/>
-      <c r="AY16" s="116"/>
-      <c r="AZ16" s="116"/>
-      <c r="BA16" s="116"/>
-      <c r="BB16" s="116"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="102"/>
+      <c r="AO16" s="102"/>
+      <c r="AP16" s="102"/>
+      <c r="AQ16" s="102"/>
+      <c r="AR16" s="102"/>
+      <c r="AS16" s="102"/>
+      <c r="AT16" s="102"/>
+      <c r="AU16" s="102"/>
+      <c r="AV16" s="102"/>
+      <c r="AW16" s="102"/>
+      <c r="AX16" s="102"/>
+      <c r="AY16" s="102"/>
+      <c r="AZ16" s="102"/>
+      <c r="BA16" s="102"/>
+      <c r="BB16" s="102"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="105">
+      <c r="A17" s="112">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="115"/>
-      <c r="AA17" s="116"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="116"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="116"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="116"/>
-      <c r="AO17" s="116"/>
-      <c r="AP17" s="116"/>
-      <c r="AQ17" s="116"/>
-      <c r="AR17" s="116"/>
-      <c r="AS17" s="116"/>
-      <c r="AT17" s="116"/>
-      <c r="AU17" s="116"/>
-      <c r="AV17" s="116"/>
-      <c r="AW17" s="116"/>
-      <c r="AX17" s="116"/>
-      <c r="AY17" s="116"/>
-      <c r="AZ17" s="116"/>
-      <c r="BA17" s="116"/>
-      <c r="BB17" s="116"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="102"/>
+      <c r="AO17" s="102"/>
+      <c r="AP17" s="102"/>
+      <c r="AQ17" s="102"/>
+      <c r="AR17" s="102"/>
+      <c r="AS17" s="102"/>
+      <c r="AT17" s="102"/>
+      <c r="AU17" s="102"/>
+      <c r="AV17" s="102"/>
+      <c r="AW17" s="102"/>
+      <c r="AX17" s="102"/>
+      <c r="AY17" s="102"/>
+      <c r="AZ17" s="102"/>
+      <c r="BA17" s="102"/>
+      <c r="BB17" s="102"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="105">
+      <c r="A18" s="112">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="114"/>
-      <c r="Z18" s="115"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="114"/>
-      <c r="AC18" s="114"/>
-      <c r="AD18" s="114"/>
-      <c r="AE18" s="114"/>
-      <c r="AF18" s="114"/>
-      <c r="AG18" s="114"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="114"/>
-      <c r="AK18" s="114"/>
-      <c r="AL18" s="114"/>
-      <c r="AM18" s="114"/>
-      <c r="AN18" s="114"/>
-      <c r="AO18" s="114"/>
-      <c r="AP18" s="114"/>
-      <c r="AQ18" s="114"/>
-      <c r="AR18" s="114"/>
-      <c r="AS18" s="114"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="114"/>
-      <c r="AV18" s="114"/>
-      <c r="AW18" s="114"/>
-      <c r="AX18" s="114"/>
-      <c r="AY18" s="114"/>
-      <c r="AZ18" s="114"/>
-      <c r="BA18" s="114"/>
-      <c r="BB18" s="115"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="110"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="110"/>
+      <c r="AM18" s="110"/>
+      <c r="AN18" s="110"/>
+      <c r="AO18" s="110"/>
+      <c r="AP18" s="110"/>
+      <c r="AQ18" s="110"/>
+      <c r="AR18" s="110"/>
+      <c r="AS18" s="110"/>
+      <c r="AT18" s="110"/>
+      <c r="AU18" s="110"/>
+      <c r="AV18" s="110"/>
+      <c r="AW18" s="110"/>
+      <c r="AX18" s="110"/>
+      <c r="AY18" s="110"/>
+      <c r="AZ18" s="110"/>
+      <c r="BA18" s="110"/>
+      <c r="BB18" s="111"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="105">
+      <c r="A19" s="112">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="114"/>
-      <c r="Z19" s="115"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="114"/>
-      <c r="AC19" s="114"/>
-      <c r="AD19" s="114"/>
-      <c r="AE19" s="114"/>
-      <c r="AF19" s="114"/>
-      <c r="AG19" s="114"/>
-      <c r="AH19" s="114"/>
-      <c r="AI19" s="114"/>
-      <c r="AJ19" s="114"/>
-      <c r="AK19" s="114"/>
-      <c r="AL19" s="114"/>
-      <c r="AM19" s="114"/>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="114"/>
-      <c r="AP19" s="114"/>
-      <c r="AQ19" s="114"/>
-      <c r="AR19" s="114"/>
-      <c r="AS19" s="114"/>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="114"/>
-      <c r="AV19" s="114"/>
-      <c r="AW19" s="114"/>
-      <c r="AX19" s="114"/>
-      <c r="AY19" s="114"/>
-      <c r="AZ19" s="114"/>
-      <c r="BA19" s="114"/>
-      <c r="BB19" s="115"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="110"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="110"/>
+      <c r="AM19" s="110"/>
+      <c r="AN19" s="110"/>
+      <c r="AO19" s="110"/>
+      <c r="AP19" s="110"/>
+      <c r="AQ19" s="110"/>
+      <c r="AR19" s="110"/>
+      <c r="AS19" s="110"/>
+      <c r="AT19" s="110"/>
+      <c r="AU19" s="110"/>
+      <c r="AV19" s="110"/>
+      <c r="AW19" s="110"/>
+      <c r="AX19" s="110"/>
+      <c r="AY19" s="110"/>
+      <c r="AZ19" s="110"/>
+      <c r="BA19" s="110"/>
+      <c r="BB19" s="111"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="105">
+      <c r="A20" s="112">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="114"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="114"/>
-      <c r="AK20" s="114"/>
-      <c r="AL20" s="114"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="114"/>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="114"/>
-      <c r="AT20" s="114"/>
-      <c r="AU20" s="114"/>
-      <c r="AV20" s="114"/>
-      <c r="AW20" s="114"/>
-      <c r="AX20" s="114"/>
-      <c r="AY20" s="114"/>
-      <c r="AZ20" s="114"/>
-      <c r="BA20" s="114"/>
-      <c r="BB20" s="115"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="110"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="110"/>
+      <c r="AM20" s="110"/>
+      <c r="AN20" s="110"/>
+      <c r="AO20" s="110"/>
+      <c r="AP20" s="110"/>
+      <c r="AQ20" s="110"/>
+      <c r="AR20" s="110"/>
+      <c r="AS20" s="110"/>
+      <c r="AT20" s="110"/>
+      <c r="AU20" s="110"/>
+      <c r="AV20" s="110"/>
+      <c r="AW20" s="110"/>
+      <c r="AX20" s="110"/>
+      <c r="AY20" s="110"/>
+      <c r="AZ20" s="110"/>
+      <c r="BA20" s="110"/>
+      <c r="BB20" s="111"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="105">
+      <c r="A21" s="112">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="114"/>
-      <c r="AC21" s="114"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="114"/>
-      <c r="AF21" s="114"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="114"/>
-      <c r="AJ21" s="114"/>
-      <c r="AK21" s="114"/>
-      <c r="AL21" s="114"/>
-      <c r="AM21" s="114"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="114"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="114"/>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="114"/>
-      <c r="AU21" s="114"/>
-      <c r="AV21" s="114"/>
-      <c r="AW21" s="114"/>
-      <c r="AX21" s="114"/>
-      <c r="AY21" s="114"/>
-      <c r="AZ21" s="114"/>
-      <c r="BA21" s="114"/>
-      <c r="BB21" s="115"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="110"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="110"/>
+      <c r="AM21" s="110"/>
+      <c r="AN21" s="110"/>
+      <c r="AO21" s="110"/>
+      <c r="AP21" s="110"/>
+      <c r="AQ21" s="110"/>
+      <c r="AR21" s="110"/>
+      <c r="AS21" s="110"/>
+      <c r="AT21" s="110"/>
+      <c r="AU21" s="110"/>
+      <c r="AV21" s="110"/>
+      <c r="AW21" s="110"/>
+      <c r="AX21" s="110"/>
+      <c r="AY21" s="110"/>
+      <c r="AZ21" s="110"/>
+      <c r="BA21" s="110"/>
+      <c r="BB21" s="111"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="116">
+      <c r="A22" s="102">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="114"/>
-      <c r="AC22" s="114"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="114"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="114"/>
-      <c r="AJ22" s="114"/>
-      <c r="AK22" s="114"/>
-      <c r="AL22" s="114"/>
-      <c r="AM22" s="114"/>
-      <c r="AN22" s="114"/>
-      <c r="AO22" s="114"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="114"/>
-      <c r="AR22" s="114"/>
-      <c r="AS22" s="114"/>
-      <c r="AT22" s="114"/>
-      <c r="AU22" s="114"/>
-      <c r="AV22" s="114"/>
-      <c r="AW22" s="114"/>
-      <c r="AX22" s="114"/>
-      <c r="AY22" s="114"/>
-      <c r="AZ22" s="114"/>
-      <c r="BA22" s="114"/>
-      <c r="BB22" s="115"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="110"/>
+      <c r="AJ22" s="110"/>
+      <c r="AK22" s="110"/>
+      <c r="AL22" s="110"/>
+      <c r="AM22" s="110"/>
+      <c r="AN22" s="110"/>
+      <c r="AO22" s="110"/>
+      <c r="AP22" s="110"/>
+      <c r="AQ22" s="110"/>
+      <c r="AR22" s="110"/>
+      <c r="AS22" s="110"/>
+      <c r="AT22" s="110"/>
+      <c r="AU22" s="110"/>
+      <c r="AV22" s="110"/>
+      <c r="AW22" s="110"/>
+      <c r="AX22" s="110"/>
+      <c r="AY22" s="110"/>
+      <c r="AZ22" s="110"/>
+      <c r="BA22" s="110"/>
+      <c r="BB22" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -6536,96 +6626,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6634,6 +6634,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -6828,15 +6837,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6849,10 +6849,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB3208C-0FD6-4492-B5D2-F64643701ED0}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6860,6 +6856,32 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB3208C-0FD6-4492-B5D2-F64643701ED0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9AD0903-2C35-46C7-937B-25C8F064F957}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9AD0903-2C35-46C7-937B-25C8F064F957}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C000）共通ヘッダー.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C000）共通ヘッダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D48C1-67F0-4BB5-A482-FD5C4EC341DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CB310-BE2B-4246-A00D-722143B68CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="879" activeTab="2" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
+    <workbookView xWindow="6768" yWindow="2364" windowWidth="23040" windowHeight="9396" tabRatio="879" activeTab="2" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -392,32 +392,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員でログイン中は社員メイン画面へ遷移する。</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ロゴ」リンク押下</t>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログアウト」ボタン押下</t>
     <rPh sb="10" eb="12">
       <t>オウカ</t>
@@ -431,23 +405,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上司でログイン中は社員メイン画面へ遷移する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者でログイン中は管理メイン画面へ遷移する。</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -489,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,13 +566,6 @@
       <u/>
       <sz val="11"/>
       <color theme="3" tint="0.499984740745262"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -885,7 +835,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,24 +983,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,105 +1064,51 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1192,6 +1133,38 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,38 +1175,6 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1889,7 +1830,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:BY42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AW15" sqref="AW15"/>
     </sheetView>
   </sheetViews>
@@ -1980,206 +1921,206 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="61" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63" t="s">
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="65"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="57"/>
     </row>
     <row r="3" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="74">
+      <c r="I3" s="66">
         <v>101</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="66" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="68">
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60">
         <v>45441</v>
       </c>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="70"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="62"/>
     </row>
     <row r="4" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="73"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="65"/>
     </row>
     <row r="5" spans="1:77" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="73"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="65"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
@@ -2281,17 +2222,17 @@
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
@@ -2331,15 +2272,15 @@
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
@@ -2518,296 +2459,296 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="78"/>
-      <c r="AL30" s="78"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="78"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
       <c r="AP30" s="8"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="77"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
       <c r="AP31" s="8"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="77"/>
-      <c r="AI32" s="77"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="77"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="77"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
       <c r="AP32" s="8"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="77"/>
-      <c r="AH33" s="77"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="77"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="77"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="77"/>
-      <c r="AG34" s="77"/>
-      <c r="AH34" s="77"/>
-      <c r="AI34" s="77"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="77"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
       <c r="AP34" s="8"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="77"/>
-      <c r="AE35" s="77"/>
-      <c r="AF35" s="77"/>
-      <c r="AG35" s="77"/>
-      <c r="AH35" s="77"/>
-      <c r="AI35" s="77"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="77"/>
-      <c r="AL35" s="77"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="77"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
       <c r="AP35" s="8"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="77"/>
-      <c r="AD36" s="77"/>
-      <c r="AE36" s="77"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="77"/>
-      <c r="AH36" s="77"/>
-      <c r="AI36" s="77"/>
-      <c r="AJ36" s="77"/>
-      <c r="AK36" s="77"/>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="77"/>
-      <c r="AN36" s="77"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
       <c r="AP36" s="8"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.45">
@@ -3070,11 +3011,19 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:AB36"/>
-    <mergeCell ref="AC33:AD34"/>
-    <mergeCell ref="AC35:AD36"/>
-    <mergeCell ref="AE35:AJ36"/>
+    <mergeCell ref="C9:K10"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:AB34"/>
+    <mergeCell ref="E31:AB32"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="I5:AP5"/>
+    <mergeCell ref="I4:AP4"/>
+    <mergeCell ref="I3:AC3"/>
+    <mergeCell ref="I2:AC2"/>
     <mergeCell ref="AK35:AL36"/>
     <mergeCell ref="AM35:AN36"/>
     <mergeCell ref="C31:D32"/>
@@ -3091,19 +3040,11 @@
     <mergeCell ref="AE33:AJ34"/>
     <mergeCell ref="AK33:AL34"/>
     <mergeCell ref="AM33:AN34"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AI3:AP3"/>
-    <mergeCell ref="I5:AP5"/>
-    <mergeCell ref="I4:AP4"/>
-    <mergeCell ref="I3:AC3"/>
-    <mergeCell ref="I2:AC2"/>
-    <mergeCell ref="C9:K10"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:AB34"/>
-    <mergeCell ref="E31:AB32"/>
-    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:AB36"/>
+    <mergeCell ref="AC33:AD34"/>
+    <mergeCell ref="AC35:AD36"/>
+    <mergeCell ref="AE35:AJ36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI1">
@@ -3211,124 +3152,124 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="87" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="87" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="87" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="88"/>
-      <c r="W2" s="87" t="s">
+      <c r="V2" s="77"/>
+      <c r="W2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="87" t="s">
+      <c r="X2" s="77"/>
+      <c r="Y2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="87" t="s">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="89" t="s">
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="90"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="79"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="84" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="79" t="s">
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="79" t="s">
+      <c r="V3" s="86"/>
+      <c r="W3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="79" t="s">
+      <c r="X3" s="86"/>
+      <c r="Y3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="79">
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="85">
         <v>3</v>
       </c>
-      <c r="AF3" s="81"/>
+      <c r="AF3" s="86"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
@@ -3353,52 +3294,52 @@
       <c r="BB3" s="14"/>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="84" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="79" t="s">
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79" t="s">
+      <c r="V4" s="86"/>
+      <c r="W4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="79" t="s">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="79">
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="85">
         <v>20</v>
       </c>
-      <c r="AF4" s="81"/>
+      <c r="AF4" s="86"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
@@ -3423,52 +3364,52 @@
       <c r="BB4" s="14"/>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="84" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="79" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="81"/>
-      <c r="W5" s="79" t="s">
+      <c r="V5" s="86"/>
+      <c r="W5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="79" t="s">
+      <c r="X5" s="86"/>
+      <c r="Y5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="79">
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="85">
         <v>5</v>
       </c>
-      <c r="AF5" s="81"/>
+      <c r="AF5" s="86"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
@@ -3494,6 +3435,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -3510,19 +3464,6 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2">
@@ -3536,10 +3477,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F03484D-9CF2-4A7A-902E-5FACCCFE191F}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:CD8"/>
+  <dimension ref="A1:CD5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3638,96 +3579,96 @@
       <c r="CD1" s="15"/>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="92" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="92" t="s">
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89" t="s">
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="90"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="79"/>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="96" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="98"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="95"/>
       <c r="T3" s="18" t="s">
         <v>53</v>
       </c>
       <c r="U3" s="19"/>
       <c r="V3" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
@@ -3744,7 +3685,7 @@
       <c r="AI3" s="19"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AL3" s="19"/>
       <c r="AM3" s="19"/>
@@ -3758,27 +3699,27 @@
       <c r="AU3" s="20"/>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A4" s="93"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="86"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="84"/>
       <c r="T4" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
@@ -3797,7 +3738,7 @@
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
       <c r="AK4" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AL4" s="13"/>
       <c r="AM4" s="13"/>
@@ -3811,36 +3752,36 @@
       <c r="AU4" s="14"/>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A5" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="84" t="s">
+      <c r="A5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="50"/>
-      <c r="V5" s="19"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
@@ -3867,181 +3808,10 @@
       <c r="AT5" s="13"/>
       <c r="AU5" s="14"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A6" s="93"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="14"/>
-    </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A7" s="93"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="14"/>
-    </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.45">
-      <c r="A8" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:S7"/>
+  <mergeCells count="14">
     <mergeCell ref="T2:AJ2"/>
     <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:S5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:S4"/>
@@ -4051,6 +3821,9 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="M3:S3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:S5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AL1:AL2">
@@ -4158,108 +3931,108 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="91" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="99" t="s">
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="99" t="s">
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100"/>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="101"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="97"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="97"/>
+      <c r="BB2" s="98"/>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="87" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="91" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="88"/>
-      <c r="U3" s="87" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="77"/>
       <c r="AE3" s="21"/>
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
@@ -4360,42 +4133,42 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="14"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="85"/>
-      <c r="AX5" s="85"/>
-      <c r="AY5" s="85"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="85"/>
-      <c r="BB5" s="86"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="84"/>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
@@ -4416,42 +4189,42 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="85"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="85"/>
-      <c r="AW6" s="85"/>
-      <c r="AX6" s="85"/>
-      <c r="AY6" s="85"/>
-      <c r="AZ6" s="85"/>
-      <c r="BA6" s="85"/>
-      <c r="BB6" s="86"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="83"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="84"/>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
@@ -4472,42 +4245,42 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="86"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="84"/>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
@@ -4528,42 +4301,42 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
-      <c r="BA8" s="85"/>
-      <c r="BB8" s="86"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="84"/>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
@@ -4584,42 +4357,42 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="14"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="85"/>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="85"/>
-      <c r="BA9" s="85"/>
-      <c r="BB9" s="86"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="84"/>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
@@ -4640,42 +4413,42 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="85"/>
-      <c r="AZ10" s="85"/>
-      <c r="BA10" s="85"/>
-      <c r="BB10" s="86"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="84"/>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
@@ -4696,42 +4469,42 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="85"/>
-      <c r="BA11" s="85"/>
-      <c r="BB11" s="86"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="83"/>
+      <c r="BB11" s="84"/>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
@@ -4752,42 +4525,42 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="14"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
-      <c r="BA12" s="85"/>
-      <c r="BB12" s="86"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="84"/>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
@@ -4808,42 +4581,42 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="85"/>
-      <c r="AZ13" s="85"/>
-      <c r="BA13" s="85"/>
-      <c r="BB13" s="86"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="84"/>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
@@ -4864,42 +4637,42 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="85"/>
-      <c r="BA14" s="85"/>
-      <c r="BB14" s="86"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="83"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="84"/>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
@@ -4920,42 +4693,42 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="85"/>
-      <c r="AZ15" s="85"/>
-      <c r="BA15" s="85"/>
-      <c r="BB15" s="86"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="83"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="83"/>
+      <c r="BB15" s="84"/>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
@@ -4976,42 +4749,42 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="85"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="85"/>
-      <c r="AY16" s="85"/>
-      <c r="AZ16" s="85"/>
-      <c r="BA16" s="85"/>
-      <c r="BB16" s="86"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="83"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="83"/>
+      <c r="BB16" s="84"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
@@ -5032,42 +4805,42 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="85"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="85"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="85"/>
-      <c r="BA17" s="85"/>
-      <c r="BB17" s="86"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="83"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="83"/>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="83"/>
+      <c r="BA17" s="83"/>
+      <c r="BB17" s="84"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
@@ -5088,97 +4861,45 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="85"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="85"/>
-      <c r="AP18" s="85"/>
-      <c r="AQ18" s="85"/>
-      <c r="AR18" s="85"/>
-      <c r="AS18" s="85"/>
-      <c r="AT18" s="85"/>
-      <c r="AU18" s="85"/>
-      <c r="AV18" s="85"/>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="85"/>
-      <c r="AY18" s="85"/>
-      <c r="AZ18" s="85"/>
-      <c r="BA18" s="85"/>
-      <c r="BB18" s="86"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AM10"/>
-    <mergeCell ref="AN10:BB10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BB15"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:AD18"/>
     <mergeCell ref="AE18:AM18"/>
@@ -5191,6 +4912,58 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BB15"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:BB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5268,1349 +5041,1259 @@
       <c r="BB1" s="27"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="114" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="114" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="114" t="s">
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="114" t="s">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="115"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="100"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="112">
+      <c r="A3" s="102">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="117">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103">
         <v>45421</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118" t="s">
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="119"/>
-      <c r="AU3" s="119"/>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="105"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="112">
+      <c r="A4" s="102">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="102"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="113"/>
+      <c r="BB4" s="113"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="112">
+      <c r="A5" s="102">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="102"/>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="112">
+      <c r="A6" s="102">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113"/>
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="112">
+      <c r="A7" s="102">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="102"/>
-      <c r="AO7" s="102"/>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="102"/>
-      <c r="AR7" s="102"/>
-      <c r="AS7" s="102"/>
-      <c r="AT7" s="102"/>
-      <c r="AU7" s="102"/>
-      <c r="AV7" s="102"/>
-      <c r="AW7" s="102"/>
-      <c r="AX7" s="102"/>
-      <c r="AY7" s="102"/>
-      <c r="AZ7" s="102"/>
-      <c r="BA7" s="102"/>
-      <c r="BB7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="113"/>
+      <c r="AL7" s="113"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="113"/>
+      <c r="AO7" s="113"/>
+      <c r="AP7" s="113"/>
+      <c r="AQ7" s="113"/>
+      <c r="AR7" s="113"/>
+      <c r="AS7" s="113"/>
+      <c r="AT7" s="113"/>
+      <c r="AU7" s="113"/>
+      <c r="AV7" s="113"/>
+      <c r="AW7" s="113"/>
+      <c r="AX7" s="113"/>
+      <c r="AY7" s="113"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="113"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="112">
+      <c r="A8" s="102">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="102"/>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="102"/>
-      <c r="AR8" s="102"/>
-      <c r="AS8" s="102"/>
-      <c r="AT8" s="102"/>
-      <c r="AU8" s="102"/>
-      <c r="AV8" s="102"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="102"/>
-      <c r="AY8" s="102"/>
-      <c r="AZ8" s="102"/>
-      <c r="BA8" s="102"/>
-      <c r="BB8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="113"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="113"/>
+      <c r="AW8" s="113"/>
+      <c r="AX8" s="113"/>
+      <c r="AY8" s="113"/>
+      <c r="AZ8" s="113"/>
+      <c r="BA8" s="113"/>
+      <c r="BB8" s="113"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="112">
+      <c r="A9" s="102">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="113"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113"/>
+      <c r="AS9" s="113"/>
+      <c r="AT9" s="113"/>
+      <c r="AU9" s="113"/>
+      <c r="AV9" s="113"/>
+      <c r="AW9" s="113"/>
+      <c r="AX9" s="113"/>
+      <c r="AY9" s="113"/>
+      <c r="AZ9" s="113"/>
+      <c r="BA9" s="113"/>
+      <c r="BB9" s="113"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="112">
+      <c r="A10" s="102">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="112">
+      <c r="A11" s="102">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="102"/>
-      <c r="AU11" s="102"/>
-      <c r="AV11" s="102"/>
-      <c r="AW11" s="102"/>
-      <c r="AX11" s="102"/>
-      <c r="AY11" s="102"/>
-      <c r="AZ11" s="102"/>
-      <c r="BA11" s="102"/>
-      <c r="BB11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="113"/>
+      <c r="BA11" s="113"/>
+      <c r="BB11" s="113"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="112">
+      <c r="A12" s="102">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="102"/>
-      <c r="AL12" s="102"/>
-      <c r="AM12" s="102"/>
-      <c r="AN12" s="102"/>
-      <c r="AO12" s="102"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="102"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="102"/>
-      <c r="AT12" s="102"/>
-      <c r="AU12" s="102"/>
-      <c r="AV12" s="102"/>
-      <c r="AW12" s="102"/>
-      <c r="AX12" s="102"/>
-      <c r="AY12" s="102"/>
-      <c r="AZ12" s="102"/>
-      <c r="BA12" s="102"/>
-      <c r="BB12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="112">
+      <c r="A13" s="102">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="102"/>
-      <c r="AM13" s="102"/>
-      <c r="AN13" s="102"/>
-      <c r="AO13" s="102"/>
-      <c r="AP13" s="102"/>
-      <c r="AQ13" s="102"/>
-      <c r="AR13" s="102"/>
-      <c r="AS13" s="102"/>
-      <c r="AT13" s="102"/>
-      <c r="AU13" s="102"/>
-      <c r="AV13" s="102"/>
-      <c r="AW13" s="102"/>
-      <c r="AX13" s="102"/>
-      <c r="AY13" s="102"/>
-      <c r="AZ13" s="102"/>
-      <c r="BA13" s="102"/>
-      <c r="BB13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="112">
+      <c r="A14" s="102">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="102"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="102"/>
-      <c r="AO14" s="102"/>
-      <c r="AP14" s="102"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="102"/>
-      <c r="AS14" s="102"/>
-      <c r="AT14" s="102"/>
-      <c r="AU14" s="102"/>
-      <c r="AV14" s="102"/>
-      <c r="AW14" s="102"/>
-      <c r="AX14" s="102"/>
-      <c r="AY14" s="102"/>
-      <c r="AZ14" s="102"/>
-      <c r="BA14" s="102"/>
-      <c r="BB14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="112">
+      <c r="A15" s="102">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="102"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="102"/>
-      <c r="AS15" s="102"/>
-      <c r="AT15" s="102"/>
-      <c r="AU15" s="102"/>
-      <c r="AV15" s="102"/>
-      <c r="AW15" s="102"/>
-      <c r="AX15" s="102"/>
-      <c r="AY15" s="102"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="102"/>
-      <c r="BB15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="113"/>
+      <c r="BB15" s="113"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="112">
+      <c r="A16" s="102">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="102"/>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="102"/>
-      <c r="AX16" s="102"/>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="113"/>
+      <c r="BB16" s="113"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="112">
+      <c r="A17" s="102">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="102"/>
-      <c r="AJ17" s="102"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="102"/>
-      <c r="AM17" s="102"/>
-      <c r="AN17" s="102"/>
-      <c r="AO17" s="102"/>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="102"/>
-      <c r="AS17" s="102"/>
-      <c r="AT17" s="102"/>
-      <c r="AU17" s="102"/>
-      <c r="AV17" s="102"/>
-      <c r="AW17" s="102"/>
-      <c r="AX17" s="102"/>
-      <c r="AY17" s="102"/>
-      <c r="AZ17" s="102"/>
-      <c r="BA17" s="102"/>
-      <c r="BB17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="112">
+      <c r="A18" s="102">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="110"/>
-      <c r="AO18" s="110"/>
-      <c r="AP18" s="110"/>
-      <c r="AQ18" s="110"/>
-      <c r="AR18" s="110"/>
-      <c r="AS18" s="110"/>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="110"/>
-      <c r="AV18" s="110"/>
-      <c r="AW18" s="110"/>
-      <c r="AX18" s="110"/>
-      <c r="AY18" s="110"/>
-      <c r="AZ18" s="110"/>
-      <c r="BA18" s="110"/>
-      <c r="BB18" s="111"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="111"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="111"/>
+      <c r="AT18" s="111"/>
+      <c r="AU18" s="111"/>
+      <c r="AV18" s="111"/>
+      <c r="AW18" s="111"/>
+      <c r="AX18" s="111"/>
+      <c r="AY18" s="111"/>
+      <c r="AZ18" s="111"/>
+      <c r="BA18" s="111"/>
+      <c r="BB18" s="112"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="112">
+      <c r="A19" s="102">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="110"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="110"/>
-      <c r="AO19" s="110"/>
-      <c r="AP19" s="110"/>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="110"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="110"/>
-      <c r="AV19" s="110"/>
-      <c r="AW19" s="110"/>
-      <c r="AX19" s="110"/>
-      <c r="AY19" s="110"/>
-      <c r="AZ19" s="110"/>
-      <c r="BA19" s="110"/>
-      <c r="BB19" s="111"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="111"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="111"/>
+      <c r="AK19" s="111"/>
+      <c r="AL19" s="111"/>
+      <c r="AM19" s="111"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="111"/>
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="111"/>
+      <c r="AR19" s="111"/>
+      <c r="AS19" s="111"/>
+      <c r="AT19" s="111"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="111"/>
+      <c r="AW19" s="111"/>
+      <c r="AX19" s="111"/>
+      <c r="AY19" s="111"/>
+      <c r="AZ19" s="111"/>
+      <c r="BA19" s="111"/>
+      <c r="BB19" s="112"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="112">
+      <c r="A20" s="102">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="110"/>
-      <c r="AL20" s="110"/>
-      <c r="AM20" s="110"/>
-      <c r="AN20" s="110"/>
-      <c r="AO20" s="110"/>
-      <c r="AP20" s="110"/>
-      <c r="AQ20" s="110"/>
-      <c r="AR20" s="110"/>
-      <c r="AS20" s="110"/>
-      <c r="AT20" s="110"/>
-      <c r="AU20" s="110"/>
-      <c r="AV20" s="110"/>
-      <c r="AW20" s="110"/>
-      <c r="AX20" s="110"/>
-      <c r="AY20" s="110"/>
-      <c r="AZ20" s="110"/>
-      <c r="BA20" s="110"/>
-      <c r="BB20" s="111"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="111"/>
+      <c r="AH20" s="111"/>
+      <c r="AI20" s="111"/>
+      <c r="AJ20" s="111"/>
+      <c r="AK20" s="111"/>
+      <c r="AL20" s="111"/>
+      <c r="AM20" s="111"/>
+      <c r="AN20" s="111"/>
+      <c r="AO20" s="111"/>
+      <c r="AP20" s="111"/>
+      <c r="AQ20" s="111"/>
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="111"/>
+      <c r="AT20" s="111"/>
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
+      <c r="AX20" s="111"/>
+      <c r="AY20" s="111"/>
+      <c r="AZ20" s="111"/>
+      <c r="BA20" s="111"/>
+      <c r="BB20" s="112"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="112">
+      <c r="A21" s="102">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="111"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="110"/>
-      <c r="AM21" s="110"/>
-      <c r="AN21" s="110"/>
-      <c r="AO21" s="110"/>
-      <c r="AP21" s="110"/>
-      <c r="AQ21" s="110"/>
-      <c r="AR21" s="110"/>
-      <c r="AS21" s="110"/>
-      <c r="AT21" s="110"/>
-      <c r="AU21" s="110"/>
-      <c r="AV21" s="110"/>
-      <c r="AW21" s="110"/>
-      <c r="AX21" s="110"/>
-      <c r="AY21" s="110"/>
-      <c r="AZ21" s="110"/>
-      <c r="BA21" s="110"/>
-      <c r="BB21" s="111"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="111"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="111"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="111"/>
+      <c r="AL21" s="111"/>
+      <c r="AM21" s="111"/>
+      <c r="AN21" s="111"/>
+      <c r="AO21" s="111"/>
+      <c r="AP21" s="111"/>
+      <c r="AQ21" s="111"/>
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="111"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="111"/>
+      <c r="AW21" s="111"/>
+      <c r="AX21" s="111"/>
+      <c r="AY21" s="111"/>
+      <c r="AZ21" s="111"/>
+      <c r="BA21" s="111"/>
+      <c r="BB21" s="112"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="102">
+      <c r="A22" s="113">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="110"/>
-      <c r="AN22" s="110"/>
-      <c r="AO22" s="110"/>
-      <c r="AP22" s="110"/>
-      <c r="AQ22" s="110"/>
-      <c r="AR22" s="110"/>
-      <c r="AS22" s="110"/>
-      <c r="AT22" s="110"/>
-      <c r="AU22" s="110"/>
-      <c r="AV22" s="110"/>
-      <c r="AW22" s="110"/>
-      <c r="AX22" s="110"/>
-      <c r="AY22" s="110"/>
-      <c r="AZ22" s="110"/>
-      <c r="BA22" s="110"/>
-      <c r="BB22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="111"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="111"/>
+      <c r="AI22" s="111"/>
+      <c r="AJ22" s="111"/>
+      <c r="AK22" s="111"/>
+      <c r="AL22" s="111"/>
+      <c r="AM22" s="111"/>
+      <c r="AN22" s="111"/>
+      <c r="AO22" s="111"/>
+      <c r="AP22" s="111"/>
+      <c r="AQ22" s="111"/>
+      <c r="AR22" s="111"/>
+      <c r="AS22" s="111"/>
+      <c r="AT22" s="111"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="111"/>
+      <c r="AW22" s="111"/>
+      <c r="AX22" s="111"/>
+      <c r="AY22" s="111"/>
+      <c r="AZ22" s="111"/>
+      <c r="BA22" s="111"/>
+      <c r="BB22" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -6626,6 +6309,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6634,15 +6407,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -6837,6 +6601,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6849,14 +6622,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB3208C-0FD6-4492-B5D2-F64643701ED0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6875,6 +6640,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9AD0903-2C35-46C7-937B-25C8F064F957}">
   <ds:schemaRefs>
